--- a/Excel-XLSX/UN-AND.xlsx
+++ b/Excel-XLSX/UN-AND.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>bODA61</t>
+    <t>QLs1tM</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-AND.xlsx
+++ b/Excel-XLSX/UN-AND.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>QLs1tM</t>
+    <t>N1uoZf</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-AND.xlsx
+++ b/Excel-XLSX/UN-AND.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>N1uoZf</t>
+    <t>L5In68</t>
   </si>
   <si>
     <t>0</t>
